--- a/data/trans_dic/iP30A4_2023-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/iP30A4_2023-Habitat-trans_dic.xlsx
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>Menos de 2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>55,17%</t>
+          <t>31,33%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>49,11%</t>
+          <t>24,28%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>52,52%</t>
+          <t>27,21%</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>49,04; 61,39</t>
+          <t>11,21; 58,33</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>42,39; 55,28</t>
+          <t>10,31; 44,03</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>47,99; 56,73</t>
+          <t>15,82; 44,01</t>
         </is>
       </c>
     </row>
@@ -646,7 +646,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>10/50</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>49,66%</t>
+          <t>55,17%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>48,9%</t>
+          <t>49,11%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>49,29%</t>
+          <t>52,52%</t>
         </is>
       </c>
     </row>
@@ -679,24 +679,24 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>43,17; 55,96</t>
+          <t>49,04; 61,39</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>41,88; 55,86</t>
+          <t>42,39; 55,28</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>44,36; 53,52</t>
+          <t>47,99; 56,73</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>mas de 50</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>31,33%</t>
+          <t>31,74%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>24,28%</t>
+          <t>35,87%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>27,21%</t>
+          <t>33,78%</t>
         </is>
       </c>
     </row>
@@ -729,24 +729,24 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>11,21; 58,33</t>
+          <t>25,03; 38,55</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>10,31; 44,03</t>
+          <t>28,7; 43,12</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>15,82; 44,01</t>
+          <t>28,74; 39,01</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>31,74%</t>
+          <t>49,66%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>35,87%</t>
+          <t>48,9%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>33,78%</t>
+          <t>49,29%</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>25,03; 38,55</t>
+          <t>43,17; 55,96</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>28,7; 43,12</t>
+          <t>41,88; 55,86</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>28,74; 39,01</t>
+          <t>44,36; 53,52</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/iP30A4_2023-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/iP30A4_2023-Habitat-trans_dic.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>39,4; 59,42</t>
+          <t>40,41; 60,32</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>39,27; 57,37</t>
+          <t>39,42; 55,58</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>42,19; 55,52</t>
+          <t>42,79; 55,95</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>49,04; 61,39</t>
+          <t>49,63; 61,57</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>42,39; 55,28</t>
+          <t>42,45; 55,56</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>47,99; 56,73</t>
+          <t>47,94; 56,62</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>25,03; 38,55</t>
+          <t>25,33; 38,05</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>28,7; 43,12</t>
+          <t>28,2; 43,92</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>28,74; 39,01</t>
+          <t>29,12; 39,29</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>43,17; 55,96</t>
+          <t>43,21; 56,55</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>41,88; 55,86</t>
+          <t>41,68; 54,79</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>44,36; 53,52</t>
+          <t>45,02; 54,16</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,24 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>43,77; 50,59</t>
+          <t>43,53; 50,62</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>41,09; 48,26</t>
+          <t>41,26; 47,85</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>43,31; 48,43</t>
+          <t>43,53; 48,48</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
